--- a/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="388">
   <si>
     <t>shipmentType</t>
   </si>
@@ -1155,6 +1155,42 @@
   </si>
   <si>
     <t>FCUPSG1011889</t>
+  </si>
+  <si>
+    <t>58542851</t>
+  </si>
+  <si>
+    <t>01-23-2022</t>
+  </si>
+  <si>
+    <t>$489.35</t>
+  </si>
+  <si>
+    <t>FCBTXA1000044</t>
+  </si>
+  <si>
+    <t>58542852</t>
+  </si>
+  <si>
+    <t>$62.43</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392591163</t>
+  </si>
+  <si>
+    <t>FCUPSG1506810</t>
+  </si>
+  <si>
+    <t>58542853</t>
+  </si>
+  <si>
+    <t>$151.56</t>
+  </si>
+  <si>
+    <t>1Z44R7R60392395189</t>
+  </si>
+  <si>
+    <t>FCUPSG1506811</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1226,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="564">
+  <fills count="594">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4007,8 +4043,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="560">
+  <borders count="590">
     <border>
       <left/>
       <right/>
@@ -6524,6 +6710,111 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6532,7 +6823,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="331">
+  <cellXfs count="346">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -6863,7 +7154,22 @@
     <xf applyBorder="true" applyFill="true" borderId="553" fillId="557" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="555" fillId="559" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="557" fillId="561" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="563" borderId="559" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="559" fillId="563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="561" fillId="565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="563" fillId="567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="565" fillId="569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="567" fillId="571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="569" fillId="573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="571" fillId="575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="573" fillId="577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="575" fillId="579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="577" fillId="581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="579" fillId="583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="581" fillId="585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="583" fillId="587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="585" fillId="589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="587" fillId="591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="593" borderId="589" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -7511,8 +7817,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="317" t="s">
-        <v>366</v>
+      <c r="B2" s="332" t="s">
+        <v>377</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -7563,20 +7869,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="316" t="s">
-        <v>365</v>
+      <c r="V2" s="331" t="s">
+        <v>376</v>
       </c>
       <c r="W2" s="235" t="s">
         <v>309</v>
       </c>
-      <c r="X2" s="318" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="319" t="s">
-        <v>367</v>
-      </c>
-      <c r="Z2" s="320" t="s">
-        <v>367</v>
+      <c r="X2" s="333" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y2" s="334" t="s">
+        <v>379</v>
+      </c>
+      <c r="Z2" s="335" t="s">
+        <v>379</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>147</v>
@@ -8153,8 +8459,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="322" t="s">
-        <v>366</v>
+      <c r="B9" s="337" t="s">
+        <v>377</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -8205,20 +8511,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="321" t="s">
-        <v>368</v>
+      <c r="V9" s="336" t="s">
+        <v>380</v>
       </c>
       <c r="W9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="X9" s="323" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y9" s="324" t="s">
-        <v>370</v>
-      </c>
-      <c r="Z9" s="325" t="s">
-        <v>371</v>
+      <c r="X9" s="338" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y9" s="339" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z9" s="340" t="s">
+        <v>383</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -8321,8 +8627,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="327" t="s">
-        <v>366</v>
+      <c r="B11" s="342" t="s">
+        <v>377</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -8373,20 +8679,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="326" t="s">
-        <v>372</v>
+      <c r="V11" s="341" t="s">
+        <v>384</v>
       </c>
       <c r="W11" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X11" s="328" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y11" s="329" t="s">
-        <v>374</v>
-      </c>
-      <c r="Z11" s="330" t="s">
-        <v>375</v>
+      <c r="X11" s="343" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y11" s="344" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z11" s="345" t="s">
+        <v>387</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>

--- a/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\testdata\FCfiles\stg\RequestReroute\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86E3BE-68DA-411B-8F98-3DC12DC2F665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5D86E3BE-68DA-411B-8F98-3DC12DC2F665}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
-    <sheet name="ShipmentInformation" sheetId="6" r:id="rId2"/>
-    <sheet name="Input" sheetId="1" r:id="rId3"/>
+    <sheet name="CreateAccount" r:id="rId1" sheetId="7"/>
+    <sheet name="ShipmentInformation" r:id="rId2" sheetId="6"/>
+    <sheet name="Input" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
   <si>
     <t>shipmentType</t>
   </si>
@@ -654,12 +654,37 @@
   </si>
   <si>
     <t>FragilePAK</t>
+  </si>
+  <si>
+    <t>59070073</t>
+  </si>
+  <si>
+    <t>05-16-2022</t>
+  </si>
+  <si>
+    <t>$1,248.16</t>
+  </si>
+  <si>
+    <t>FCABF1011968</t>
+  </si>
+  <si>
+    <t>59070167</t>
+  </si>
+  <si>
+    <t>$692.61</t>
+  </si>
+  <si>
+    <t>999U663255</t>
+  </si>
+  <si>
+    <t>FCPBID1034608</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -688,7 +713,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="78">
+  <fills count="98">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1075,8 +1100,108 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="74">
+  <borders count="94">
     <border>
       <left/>
       <right/>
@@ -1891,110 +2016,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="61" borderId="57" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="63" borderId="59" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="64" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="65" borderId="61" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="66" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="67" borderId="63" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="68" borderId="64" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="69" borderId="65" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="66" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="71" borderId="67" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="72" borderId="68" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="69" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="74" borderId="70" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="75" borderId="71" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="76" borderId="72" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="73" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="98">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="13" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="14" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="15" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="16" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="17" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="18" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="19" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="20" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="21" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="22" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="23" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="24" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="25" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="26" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="28" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="30" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="32" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="33" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="34" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="35" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="36" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="38" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="39" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="40" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="41" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="42" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="43" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="44" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="45" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="46" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="47" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="48" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="49" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="50" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="51" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="52" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="53" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="54" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="55" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="56" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="57" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="58" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="59" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="60" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="61" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="62" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="63" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="64" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="65" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="66" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="67" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="68" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="69" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="70" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="71" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="72" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="73" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="97" borderId="93" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2011,10 +2216,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2178,21 +2383,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2209,7 +2414,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2261,15 +2466,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I2"/>
@@ -2336,12 +2541,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -2350,13 +2555,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -2481,15 +2686,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
@@ -2497,34 +2702,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.140625" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="9.140625" style="1" collapsed="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="19.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="11.43359375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="14" max="16" style="1" width="9.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.140625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="16.671875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="30" max="32" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="34" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2631,12 +2836,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>197</v>
+      <c r="B2" s="94" t="s">
+        <v>210</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2687,20 +2892,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="73" t="s">
-        <v>196</v>
+      <c r="V2" s="93" t="s">
+        <v>213</v>
       </c>
       <c r="W2" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="75" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y2" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z2" s="77" t="s">
-        <v>199</v>
+      <c r="X2" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y2" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z2" s="97" t="s">
+        <v>216</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>208</v>
@@ -3697,7 +3902,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="233">
   <si>
     <t>shipmentType</t>
   </si>
@@ -678,6 +678,54 @@
   </si>
   <si>
     <t>FCPBID1034608</t>
+  </si>
+  <si>
+    <t>59072064</t>
+  </si>
+  <si>
+    <t>06-02-2022</t>
+  </si>
+  <si>
+    <t>$694.99</t>
+  </si>
+  <si>
+    <t>999U698146</t>
+  </si>
+  <si>
+    <t>FCPBID1034638</t>
+  </si>
+  <si>
+    <t>59072065</t>
+  </si>
+  <si>
+    <t>$65.99</t>
+  </si>
+  <si>
+    <t>1Z44R7R60394873051</t>
+  </si>
+  <si>
+    <t>FCUPSG1507712</t>
+  </si>
+  <si>
+    <t>59072066</t>
+  </si>
+  <si>
+    <t>$158.83</t>
+  </si>
+  <si>
+    <t>1Z44R7R60399852994</t>
+  </si>
+  <si>
+    <t>FCUPSG1507713</t>
+  </si>
+  <si>
+    <t>59072067</t>
+  </si>
+  <si>
+    <t>999U698167</t>
+  </si>
+  <si>
+    <t>FCPBID1034639</t>
   </si>
 </sst>
 </file>
@@ -713,7 +761,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="98">
+  <fills count="138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1200,8 +1248,208 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="94">
+  <borders count="134">
     <border>
       <left/>
       <right/>
@@ -2015,6 +2263,146 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2094,7 +2482,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2192,7 +2580,27 @@
     <xf applyBorder="true" applyFill="true" borderId="87" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="89" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="91" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="97" borderId="93" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="137" borderId="133" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -2840,8 +3248,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="94" t="s">
-        <v>210</v>
+      <c r="B2" s="114" t="s">
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2892,20 +3300,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="93" t="s">
-        <v>213</v>
+      <c r="V2" s="113" t="s">
+        <v>230</v>
       </c>
       <c r="W2" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="95" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y2" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z2" s="97" t="s">
-        <v>216</v>
+      <c r="X2" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y2" s="116" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z2" s="117" t="s">
+        <v>232</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>208</v>
@@ -3482,8 +3890,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>197</v>
+      <c r="B9" s="104" t="s">
+        <v>218</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3534,20 +3942,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="78" t="s">
-        <v>200</v>
+      <c r="V9" s="103" t="s">
+        <v>222</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="80" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y9" s="81" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z9" s="82" t="s">
-        <v>203</v>
+      <c r="X9" s="105" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y9" s="106" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z9" s="107" t="s">
+        <v>225</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>146</v>
@@ -3650,8 +4058,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="84" t="s">
-        <v>197</v>
+      <c r="B11" s="109" t="s">
+        <v>218</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3702,20 +4110,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="83" t="s">
-        <v>204</v>
+      <c r="V11" s="108" t="s">
+        <v>226</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="85" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y11" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z11" s="87" t="s">
-        <v>207</v>
+      <c r="X11" s="110" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y11" s="111" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z11" s="112" t="s">
+        <v>229</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>146</v>

--- a/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/RequestReroute/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="235">
   <si>
     <t>shipmentType</t>
   </si>
@@ -726,6 +726,12 @@
   </si>
   <si>
     <t>FCPBID1034639</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pending Tracking...</t>
   </si>
 </sst>
 </file>
@@ -761,7 +767,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="138">
+  <fills count="148">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1448,8 +1454,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="134">
+  <borders count="144">
     <border>
       <left/>
       <right/>
@@ -2263,6 +2319,41 @@
         <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <top style="thin"/>
@@ -2482,7 +2573,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2600,7 +2691,12 @@
     <xf applyBorder="true" applyFill="true" borderId="127" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="129" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="131" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="137" borderId="133" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="143" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="145" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="147" borderId="143" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3248,8 +3344,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="114" t="s">
-        <v>218</v>
+      <c r="B2" s="119" t="s">
+        <v>233</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3300,20 +3396,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="113" t="s">
-        <v>230</v>
+      <c r="V2" s="118" t="s">
+        <v>233</v>
       </c>
       <c r="W2" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="X2" s="115" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y2" s="116" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z2" s="117" t="s">
-        <v>232</v>
+      <c r="X2" s="120" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y2" s="121" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z2" s="122" t="s">
+        <v>233</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>208</v>
